--- a/biology/Botanique/Buxaceae/Buxaceae.xlsx
+++ b/biology/Botanique/Buxaceae/Buxaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Buxaceae (Buxacées) regroupe des plantes dicotylédones ; elle comprend une centaine d'espèces réparties en 2 à 6 genres.
 Ce sont des arbustes ou des arbres, des plantes herbacées, à feuilles persistantes, parcheminées, des régions tempérées à tropicales.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Buxus, nom latin du Buxus sempervirens, lui-même dérivé du grec πυξός / puksos, nom 
-du « buis ». L'arbre est appelé « box tree », en anglais, « arbre boîte ». Cette notion de boîte associée à l'arbre de buis est rapproché de la pyxide, petite boîte à fond plat servant à stocker des produits cosmétiques ou des bijoux, qui était traditionnellement fabriquée en bois de buis (puksos). Très répandu notamment en Angleterre, le Buxus sempervirens y fut même commémoré dans certaines régions : par exemple à Box Hill (Surrey) où la cérémonie est encore active, et à Bix Bottom (en) où le cérémonial a disparu[1].
+du « buis ». L'arbre est appelé « box tree », en anglais, « arbre boîte ». Cette notion de boîte associée à l'arbre de buis est rapproché de la pyxide, petite boîte à fond plat servant à stocker des produits cosmétiques ou des bijoux, qui était traditionnellement fabriquée en bois de buis (puksos). Très répandu notamment en Angleterre, le Buxus sempervirens y fut même commémoré dans certaines régions : par exemple à Box Hill (Surrey) où la cérémonie est encore active, et à Bix Bottom (en) où le cérémonial a disparu.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] et la classification phylogénétique APG II (2003)[3] situent cette famille à la base des dicotylédones vraies.
-Le 22 janvier 2009, le Angiosperm Phylogeny Website place cette famille dans l'ordre Buxales, choix qui a été confirmée par la classification phylogénétique APG III (2009)[4].
-Dans la classification phylogénétique APG IV (2016)[5], aux Buxaceae s'ajoutent les Haptanthaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003) situent cette famille à la base des dicotylédones vraies.
+Le 22 janvier 2009, le Angiosperm Phylogeny Website place cette famille dans l'ordre Buxales, choix qui a été confirmée par la classification phylogénétique APG III (2009).
+Dans la classification phylogénétique APG IV (2016), aux Buxaceae s'ajoutent les Haptanthaceae.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des arbres ou des arbustes à feuillages persistants mesurant jusqu'à 15 m de haut, rarement des sous-arbustes ou des herbacées rhizomateuses pérennes comme dans le genre Pachysandra. Indument absent, parfois avec des poils uni- ou multicellulaires de parois épaisses.
 Des feuilles dorsiventrales, alternes ou décussées avec des bases décurrentes qui forment des plis inter-nodaux, simples, entières (dentées dans le genre Pachysandra), pétiolés (rarement sessiles), sans stipule, nervures pinnatinervé, rarement triplinervé, brochidodromique dans les régions tropicales, dans d'autres cas eucamptodromique, cladodromique ou craspedodromique, sur toutes les régions subtropicales et tempérées.
@@ -614,28 +632,30 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[4] inclut dans cette famille le genre Didymeles précédemment placés dans la famille Didymelaceae.
-Selon NCBI  (27 avr. 2010)[6] (Plus conforme à APGIII puisqu'il incorpore le genre Didymeles anciennement dans Didymelaceae) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille le genre Didymeles précédemment placés dans la famille Didymelaceae.
+Selon NCBI  (27 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Didymeles anciennement dans Didymelaceae) :
 Buxus
 Didymeles (en) (anciennement dans la famille Didymelaceae)
 Notobuxus (es)
 Pachysandra
 Sarcococca
 Styloceras (en)
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[7] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 Buxus L.
 Notobuxus Oliv.
 Pachysandra Michx.
 Sarcococca Lindl.
 Styloceras Kunth ex Juss.
-Selon DELTA Angio           (27 avr. 2010)[8] :
+Selon DELTA Angio           (27 avr. 2010) :
 Buxus
 Notobuxus
 Pachysandra
 Sarcococca
-Selon ITIS      (27 avr. 2010)[9] :
+Selon ITIS      (27 avr. 2010) :
 Buxus  L.
 Pachysandra  Michx.</t>
         </is>
@@ -665,9 +685,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 avr. 2010)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 avr. 2010) :
 genre Buxus
 Buxus balearica
 Buxus bodinieri
